--- a/src/main/resources/TestData/Leave_Type_Repository.xlsx
+++ b/src/main/resources/TestData/Leave_Type_Repository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveType1_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7643" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="738">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -3250,30 +3250,6 @@
   </si>
   <si>
     <t xml:space="preserve">Current Date Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5ab0c55952fe8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20T13:54:59.316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5ab0c592ea4fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20T13:55:57.071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5ab0cbe394932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20T14:22:53.672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5ab0cc37dca19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20T14:24:17.845</t>
   </si>
   <si>
     <t xml:space="preserve">Leave Type 1</t>
@@ -4153,18 +4129,18 @@
   <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="B2:B3 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17771,18 +17747,18 @@
   <dimension ref="A1:U209"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="B2:B3 D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31386,19 +31362,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B3"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31413,34 +31389,6 @@
       </c>
       <c r="D1" s="6" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -31459,19 +31407,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31486,34 +31434,6 @@
       </c>
       <c r="D1" s="6" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -31534,22 +31454,22 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31587,428 +31507,428 @@
   <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/Leave_Type_Repository.xlsx
+++ b/src/main/resources/TestData/Leave_Type_Repository.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="990" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LeaveType1_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LeaveType2_Scenarios" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Leave_Type1_Repo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Leave_Type2_Repo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Effective Date" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="TC_01" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="LeaveType1_Scenarios" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="LeaveType2_Scenarios" r:id="rId3" sheetId="2" state="visible"/>
+    <sheet name="Leave_Type1_Repo" r:id="rId4" sheetId="3" state="visible"/>
+    <sheet name="Leave_Type2_Repo" r:id="rId5" sheetId="4" state="visible"/>
+    <sheet name="Effective Date" r:id="rId6" sheetId="5" state="visible"/>
+    <sheet name="TC_01" r:id="rId7" sheetId="6" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="794">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -3987,6 +3987,259 @@
 Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
 Accrual: Yes,
 Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t>LTB45</t>
+  </si>
+  <si>
+    <t>5aba232612d0a</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:25:37.561</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>LTB48</t>
+  </si>
+  <si>
+    <t>5aba2368ae672</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:26:44.127</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>LTB50</t>
+  </si>
+  <si>
+    <t>5aba23a734814</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:27:47.088</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>LTB57</t>
+  </si>
+  <si>
+    <t>5aba2451f2cf4</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:30:37.865</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>LTB63</t>
+  </si>
+  <si>
+    <t>5aba24a3c665d</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:31:59.165</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>LTB65</t>
+  </si>
+  <si>
+    <t>5aba24f6de4b6</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:33:22.367</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>LTB71</t>
+  </si>
+  <si>
+    <t>5aba254f60406</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:34:55.217</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>LTB75</t>
+  </si>
+  <si>
+    <t>5aba25af968a1</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:36:27.377</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t>LTB80</t>
+  </si>
+  <si>
+    <t>5aba2602143dd</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:37:49.685</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>LTB136</t>
+  </si>
+  <si>
+    <t>5aba26544476d</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:39:11.900</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>LTB140</t>
+  </si>
+  <si>
+    <t>5aba26a73bd63</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:40:34.766</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t>LTB148</t>
+  </si>
+  <si>
+    <t>5aba26ffa3e17</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:42:04.746</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t>LTB150</t>
+  </si>
+  <si>
+    <t>5aba275617862</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:43:29.817</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 21.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t>LTB156</t>
+  </si>
+  <si>
+    <t>5aba27a824ccd</t>
+  </si>
+  <si>
+    <t>2018-03-27T16:44:51.685</t>
   </si>
 </sst>
 </file>
@@ -4043,7 +4296,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -4052,71 +4305,71 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -4126,24 +4379,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="1" width="25.6479591836735" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="1" width="9.58673469387755" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="2" width="6.61224489795918" collapsed="true"/>
+    <col min="6" max="21" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
+    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4273,7 +4526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +4656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4468,7 +4721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4533,7 +4786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4598,7 +4851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4728,7 +4981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4793,7 +5046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4858,7 +5111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4923,7 +5176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4988,7 +5241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5053,7 +5306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5183,7 +5436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +5501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5313,7 +5566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5378,7 +5631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +5696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5508,7 +5761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5573,7 +5826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5638,7 +5891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -5703,7 +5956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -5768,7 +6021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -5833,7 +6086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +6151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +6216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -6028,7 +6281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -6093,7 +6346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -6158,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -6223,7 +6476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -6288,7 +6541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -6353,7 +6606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -6418,7 +6671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -6483,7 +6736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -6548,7 +6801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +6866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +6931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -6743,7 +6996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -6808,7 +7061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +7126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -6938,7 +7191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -7003,7 +7256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +7321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -7133,7 +7386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7198,7 +7451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7263,7 +7516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7328,7 +7581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7393,7 +7646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7458,7 +7711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -7523,7 +7776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -7588,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7653,7 +7906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -7718,7 +7971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -7783,7 +8036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -7848,7 +8101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -7913,7 +8166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -7978,7 +8231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -8043,7 +8296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +8361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -8173,7 +8426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +8491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -8303,7 +8556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -8368,7 +8621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -8433,7 +8686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -8498,7 +8751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -8628,7 +8881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -8693,7 +8946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -8758,7 +9011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -8823,7 +9076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -8888,7 +9141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -8953,7 +9206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -9083,7 +9336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -9148,7 +9401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -9213,7 +9466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -9278,7 +9531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -9343,7 +9596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -9408,7 +9661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -9473,7 +9726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -9538,7 +9791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -9603,7 +9856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -9668,7 +9921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -9733,7 +9986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +10051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -9863,7 +10116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -9928,7 +10181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -9993,7 +10246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -10058,7 +10311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -10123,7 +10376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -10188,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -10253,7 +10506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -10318,7 +10571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -10383,7 +10636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -10513,7 +10766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -10578,7 +10831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -10643,7 +10896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -10708,7 +10961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -10773,7 +11026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -10838,7 +11091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -10903,7 +11156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -10968,7 +11221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -11033,7 +11286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -11098,7 +11351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -11163,7 +11416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -11228,7 +11481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -11293,7 +11546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -11358,7 +11611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -11423,7 +11676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -11488,7 +11741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -11553,7 +11806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -11618,7 +11871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -11683,7 +11936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -11748,7 +12001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -11813,7 +12066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -11878,7 +12131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -11943,7 +12196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -12008,7 +12261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -12073,7 +12326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -12138,7 +12391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -12203,7 +12456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -12268,7 +12521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -12333,7 +12586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -12398,7 +12651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -12463,7 +12716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -12528,7 +12781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -12593,7 +12846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -12658,7 +12911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -12723,7 +12976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -12788,7 +13041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -12853,7 +13106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -12918,7 +13171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -12983,7 +13236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -13048,7 +13301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -13113,7 +13366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -13178,7 +13431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -13243,7 +13496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -13308,7 +13561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -13373,7 +13626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -13438,7 +13691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -13503,7 +13756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -13568,7 +13821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -13633,7 +13886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -13698,7 +13951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -13763,7 +14016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -13828,7 +14081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -13893,7 +14146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -13958,7 +14211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -14023,7 +14276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -14088,7 +14341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -14153,7 +14406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -14218,7 +14471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -14283,7 +14536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -14348,7 +14601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -14413,7 +14666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -14478,7 +14731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -14543,7 +14796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -14608,7 +14861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -14673,7 +14926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -14738,7 +14991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -14803,7 +15056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -14868,7 +15121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -14933,7 +15186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -14998,7 +15251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -15063,7 +15316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -15128,7 +15381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -15193,7 +15446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -15258,7 +15511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -15323,7 +15576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -15388,7 +15641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -15453,7 +15706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -15518,7 +15771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -15583,7 +15836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -15648,7 +15901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -15713,7 +15966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -15778,7 +16031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -15843,7 +16096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -15908,7 +16161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -15973,7 +16226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -16038,7 +16291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -16103,7 +16356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -16168,7 +16421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -16233,7 +16486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -16298,7 +16551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -16363,7 +16616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -16428,7 +16681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -16493,7 +16746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -16558,7 +16811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -16623,7 +16876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -16688,7 +16941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -16753,7 +17006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -16818,7 +17071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -16883,7 +17136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -16948,7 +17201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -17013,7 +17266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -17078,7 +17331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -17143,7 +17396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -17208,7 +17461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -17273,7 +17526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -17338,7 +17591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -17403,7 +17656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -17468,7 +17721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -17533,7 +17786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -17598,7 +17851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -17663,7 +17916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -17729,9 +17982,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17744,24 +17997,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A24" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="1" width="25.6479591836735" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="1" width="9.58673469387755" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="2" width="6.61224489795918" collapsed="true"/>
+    <col min="6" max="21" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
+    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17826,7 +18079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -17891,7 +18144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -17956,7 +18209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -18021,7 +18274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -18086,7 +18339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -18151,7 +18404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -18216,7 +18469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -18281,7 +18534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -18346,7 +18599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -18411,7 +18664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -18476,7 +18729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -18541,7 +18794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -18606,7 +18859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -18671,7 +18924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -18736,7 +18989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -18801,7 +19054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -18866,7 +19119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -18931,7 +19184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -18996,7 +19249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -19061,7 +19314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -19126,7 +19379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -19191,7 +19444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -19256,7 +19509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19321,7 +19574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -19386,7 +19639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -19451,7 +19704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -19516,7 +19769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -19581,7 +19834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -19646,7 +19899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -19711,7 +19964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -19776,7 +20029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -19841,7 +20094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -19906,7 +20159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -19971,7 +20224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -20036,7 +20289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -20101,7 +20354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -20166,7 +20419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -20231,7 +20484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -20296,7 +20549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -20361,7 +20614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -20426,7 +20679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -20491,7 +20744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -20556,7 +20809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -20621,7 +20874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -20686,7 +20939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -20751,7 +21004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -20816,7 +21069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -20881,7 +21134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -20946,7 +21199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -21011,7 +21264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -21076,7 +21329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -21141,7 +21394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -21206,7 +21459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -21271,7 +21524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -21336,7 +21589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -21401,7 +21654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -21466,7 +21719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -21531,7 +21784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -21596,7 +21849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -21661,7 +21914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -21726,7 +21979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -21791,7 +22044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -21856,7 +22109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -21921,7 +22174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -21986,7 +22239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -22051,7 +22304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -22116,7 +22369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -22181,7 +22434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -22246,7 +22499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -22311,7 +22564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -22376,7 +22629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -22441,7 +22694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -22506,7 +22759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -22571,7 +22824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -22636,7 +22889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -22701,7 +22954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -22766,7 +23019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -22831,7 +23084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -22896,7 +23149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -22961,7 +23214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -23026,7 +23279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -23091,7 +23344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -23156,7 +23409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -23221,7 +23474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -23286,7 +23539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -23351,7 +23604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -23416,7 +23669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -23481,7 +23734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -23546,7 +23799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -23611,7 +23864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -23676,7 +23929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -23741,7 +23994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -23806,7 +24059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -23871,7 +24124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -23936,7 +24189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -24001,7 +24254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -24066,7 +24319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -24131,7 +24384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -24196,7 +24449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -24261,7 +24514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -24326,7 +24579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -24391,7 +24644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -24456,7 +24709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -24521,7 +24774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -24586,7 +24839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -24651,7 +24904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -24716,7 +24969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -24781,7 +25034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -24846,7 +25099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -24911,7 +25164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -24976,7 +25229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -25041,7 +25294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -25106,7 +25359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -25171,7 +25424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -25236,7 +25489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -25301,7 +25554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -25366,7 +25619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -25431,7 +25684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -25496,7 +25749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -25561,7 +25814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -25626,7 +25879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -25691,7 +25944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -25756,7 +26009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -25821,7 +26074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -25886,7 +26139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -25951,7 +26204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -26016,7 +26269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -26081,7 +26334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -26146,7 +26399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -26211,7 +26464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -26276,7 +26529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -26341,7 +26594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -26406,7 +26659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -26471,7 +26724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -26536,7 +26789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -26601,7 +26854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -26666,7 +26919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -26731,7 +26984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -26796,7 +27049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -26861,7 +27114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -26926,7 +27179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -26991,7 +27244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -27056,7 +27309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -27121,7 +27374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -27186,7 +27439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -27251,7 +27504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -27316,7 +27569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -27381,7 +27634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -27446,7 +27699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -27511,7 +27764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -27576,7 +27829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -27641,7 +27894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -27706,7 +27959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -27771,7 +28024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -27836,7 +28089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -27901,7 +28154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -27966,7 +28219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -28031,7 +28284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -28096,7 +28349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -28161,7 +28414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -28226,7 +28479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -28291,7 +28544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -28356,7 +28609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -28421,7 +28674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -28486,7 +28739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -28551,7 +28804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -28616,7 +28869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -28681,7 +28934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -28746,7 +28999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -28811,7 +29064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -28876,7 +29129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -28941,7 +29194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -29006,7 +29259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -29071,7 +29324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -29136,7 +29389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -29201,7 +29454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -29266,7 +29519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -29331,7 +29584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -29396,7 +29649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -29461,7 +29714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -29526,7 +29779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -29591,7 +29844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -29656,7 +29909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -29721,7 +29974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -29786,7 +30039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -29851,7 +30104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -29916,7 +30169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -29981,7 +30234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -30046,7 +30299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -30111,7 +30364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -30176,7 +30429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -30241,7 +30494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -30306,7 +30559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -30371,7 +30624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -30436,7 +30689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -30501,7 +30754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -30566,7 +30819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -30631,7 +30884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -30696,7 +30949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -30761,7 +31014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -30826,7 +31079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -30891,7 +31144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -30956,7 +31209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -31021,7 +31274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -31086,7 +31339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -31151,7 +31404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -31216,7 +31469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -31281,7 +31534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -31347,9 +31600,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31362,22 +31615,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="51.2959183673469" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="35.6377551020408" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="28.0765306122449" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31392,9 +31645,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31407,22 +31660,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.9285714285714" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.6581632653061" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="12.9591836734694" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="16.0663265306122" collapsed="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31436,10 +31689,206 @@
         <v>652</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C10" t="s">
+        <v>772</v>
+      </c>
+      <c r="D10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C11" t="s">
+        <v>776</v>
+      </c>
+      <c r="D11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C13" t="s">
+        <v>784</v>
+      </c>
+      <c r="D13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C14" t="s">
+        <v>788</v>
+      </c>
+      <c r="D14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D15" t="s">
+        <v>793</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31452,19 +31901,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col min="1" max="2" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>653</v>
       </c>
@@ -31472,7 +31921,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
@@ -31480,7 +31929,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
@@ -31489,9 +31938,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31504,437 +31953,437 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.2091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="0" width="55.2091836734694" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="2">
       <c r="A2" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="3">
       <c r="A3" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="4">
       <c r="A4" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="5">
       <c r="A5" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="6">
       <c r="A6" s="5" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="7">
       <c r="A7" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="8">
       <c r="A8" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="9">
       <c r="A9" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="10">
       <c r="A10" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="11">
       <c r="A11" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="12">
       <c r="A12" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="13">
       <c r="A13" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="14">
       <c r="A14" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="15">
       <c r="A15" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="16">
       <c r="A16" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="17">
       <c r="A17" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="18">
       <c r="A18" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="19">
       <c r="A19" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="20">
       <c r="A20" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="21">
       <c r="A21" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="22">
       <c r="A22" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="23">
       <c r="A23" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="25">
       <c r="A25" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="26">
       <c r="A26" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="28">
       <c r="A28" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="29">
       <c r="A29" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="30">
       <c r="A30" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="31">
       <c r="A31" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="32">
       <c r="A32" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="33">
       <c r="A33" s="5" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="34">
       <c r="A34" s="5" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="36">
       <c r="A36" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="37">
       <c r="A37" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="38">
       <c r="A38" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="39">
       <c r="A39" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="40">
       <c r="A40" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="41">
       <c r="A41" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="42">
       <c r="A42" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="43">
       <c r="A43" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="44">
       <c r="A44" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="45">
       <c r="A45" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="46">
       <c r="A46" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="47">
       <c r="A47" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="48">
       <c r="A48" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="49">
       <c r="A49" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="50">
       <c r="A50" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="51">
       <c r="A51" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="52">
       <c r="A52" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="53">
       <c r="A53" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="55">
       <c r="A55" s="5" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="56">
       <c r="A56" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="57">
       <c r="A57" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="58">
       <c r="A58" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="59">
       <c r="A59" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="60">
       <c r="A60" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="61">
       <c r="A61" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="62">
       <c r="A62" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="63">
       <c r="A63" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="64">
       <c r="A64" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="65">
       <c r="A65" s="5" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="66">
       <c r="A66" s="5" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="67">
       <c r="A67" s="5" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="68">
       <c r="A68" s="5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="69">
       <c r="A69" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="70">
       <c r="A70" s="5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="71">
       <c r="A71" s="5" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="72">
       <c r="A72" s="5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="73">
       <c r="A73" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="74">
       <c r="A74" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="75">
       <c r="A75" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="76">
       <c r="A76" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="77">
       <c r="A77" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="78">
       <c r="A78" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="79">
       <c r="A79" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="80">
       <c r="A80" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="81">
       <c r="A81" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="82">
       <c r="A82" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="83">
       <c r="A83" s="5" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/resources/TestData/Leave_Type_Repository.xlsx
+++ b/src/main/resources/TestData/Leave_Type_Repository.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="990" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="LeaveType1_Scenarios" r:id="rId2" sheetId="1" state="visible"/>
-    <sheet name="LeaveType2_Scenarios" r:id="rId3" sheetId="2" state="visible"/>
-    <sheet name="Leave_Type1_Repo" r:id="rId4" sheetId="3" state="visible"/>
-    <sheet name="Leave_Type2_Repo" r:id="rId5" sheetId="4" state="visible"/>
-    <sheet name="Effective Date" r:id="rId6" sheetId="5" state="visible"/>
-    <sheet name="TC_01" r:id="rId7" sheetId="6" state="visible"/>
+    <sheet name="LeaveType1_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LeaveType2_Scenarios" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Leave_Type1_Repo" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Leave_Type2_Repo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Effective Date" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TC_01" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7683" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="738">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -3987,259 +3987,6 @@
 Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
 Accrual: Yes,
 Accrual time frame: Biannual</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
-Accrual: No</t>
-  </si>
-  <si>
-    <t>LTB45</t>
-  </si>
-  <si>
-    <t>5aba232612d0a</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:25:37.561</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: No,
-Accrual: Yes,
-Accrual time frame: Month,
- Accrual point: Begin of month</t>
-  </si>
-  <si>
-    <t>LTB48</t>
-  </si>
-  <si>
-    <t>5aba2368ae672</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:26:44.127</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: No,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
-  </si>
-  <si>
-    <t>LTB50</t>
-  </si>
-  <si>
-    <t>5aba23a734814</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:27:47.088</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
-Accrual: Yes,
-Accrual time frame: Biannual</t>
-  </si>
-  <si>
-    <t>LTB57</t>
-  </si>
-  <si>
-    <t>5aba2451f2cf4</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:30:37.865</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
-Accrual: Yes,
-Accrual time frame: Month,
- Accrual point: Begin of month</t>
-  </si>
-  <si>
-    <t>LTB63</t>
-  </si>
-  <si>
-    <t>5aba24a3c665d</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:31:59.165</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
-  </si>
-  <si>
-    <t>LTB65</t>
-  </si>
-  <si>
-    <t>5aba24f6de4b6</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:33:22.367</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: End of Quarter</t>
-  </si>
-  <si>
-    <t>LTB71</t>
-  </si>
-  <si>
-    <t>5aba254f60406</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:34:55.217</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
-  </si>
-  <si>
-    <t>LTB75</t>
-  </si>
-  <si>
-    <t>5aba25af968a1</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:36:27.377</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Calendar Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
-  </si>
-  <si>
-    <t>LTB80</t>
-  </si>
-  <si>
-    <t>5aba2602143dd</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:37:49.685</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Financial Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
-Accrual: Yes,
-Accrual time frame: Month, Accrual point: End of month</t>
-  </si>
-  <si>
-    <t>LTB136</t>
-  </si>
-  <si>
-    <t>5aba26544476d</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:39:11.900</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Financial Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
-Accrual: Yes,
-Accrual time frame: Month,
- Accrual point: Begin of month</t>
-  </si>
-  <si>
-    <t>LTB140</t>
-  </si>
-  <si>
-    <t>5aba26a73bd63</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:40:34.766</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Financial Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
-Accrual: Yes,
-Accrual time frame: Quarter, Accrual point: End of Quarter</t>
-  </si>
-  <si>
-    <t>LTB148</t>
-  </si>
-  <si>
-    <t>5aba26ffa3e17</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:42:04.746</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Financial Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
-Accrual: Yes,
-Accrual time frame: Month,
- Accrual point: Begin of month</t>
-  </si>
-  <si>
-    <t>LTB150</t>
-  </si>
-  <si>
-    <t>5aba275617862</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:43:29.817</t>
-  </si>
-  <si>
-    <t>Leave Scenario is--
-Leave Cycle: Financial Year,
-Leave Probation Period: According to Employee Probation period which is 21.0 days,
-Pro Rata: Yes,
-Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
-Accrual: Yes,
-Accrual time frame: Month, Accrual point: End of month</t>
-  </si>
-  <si>
-    <t>LTB156</t>
-  </si>
-  <si>
-    <t>5aba27a824ccd</t>
-  </si>
-  <si>
-    <t>2018-03-27T16:44:51.685</t>
   </si>
 </sst>
 </file>
@@ -4296,7 +4043,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -4305,71 +4052,71 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -4379,24 +4126,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:U209"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="1" width="25.6479591836735" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="1" width="9.58673469387755" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="2" width="6.61224489795918" collapsed="true"/>
-    <col min="6" max="21" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
-    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4526,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +4338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4656,7 +4403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4721,7 +4468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4786,7 +4533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4851,7 +4598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4916,7 +4663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4981,7 +4728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -5046,7 +4793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +4858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -5176,7 +4923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +4988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5306,7 +5053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5371,7 +5118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5436,7 +5183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5501,7 +5248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5566,7 +5313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5631,7 +5378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5696,7 +5443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5761,7 +5508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5826,7 +5573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5891,7 +5638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -5956,7 +5703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -6021,7 +5768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -6086,7 +5833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6151,7 +5898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -6216,7 +5963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -6281,7 +6028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -6346,7 +6093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -6411,7 +6158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -6541,7 +6288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -6606,7 +6353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -6671,7 +6418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -6736,7 +6483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -6801,7 +6548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -6866,7 +6613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -6931,7 +6678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -6996,7 +6743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -7061,7 +6808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -7126,7 +6873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -7191,7 +6938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -7256,7 +7003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -7321,7 +7068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -7386,7 +7133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7516,7 +7263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7581,7 +7328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7711,7 +7458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -7776,7 +7523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +7653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -7971,7 +7718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -8036,7 +7783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -8101,7 +7848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -8166,7 +7913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -8231,7 +7978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -8296,7 +8043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -8361,7 +8108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -8426,7 +8173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -8491,7 +8238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -8556,7 +8303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -8621,7 +8368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -8751,7 +8498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -8816,7 +8563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -8881,7 +8628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -8946,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -9011,7 +8758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -9076,7 +8823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -9141,7 +8888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -9206,7 +8953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -9271,7 +9018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -9336,7 +9083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -9401,7 +9148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -9466,7 +9213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -9531,7 +9278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -9596,7 +9343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -9661,7 +9408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -9726,7 +9473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -9791,7 +9538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -9856,7 +9603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -9921,7 +9668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -9986,7 +9733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -10051,7 +9798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -10116,7 +9863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -10181,7 +9928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -10246,7 +9993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -10311,7 +10058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -10376,7 +10123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -10441,7 +10188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -10506,7 +10253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -10571,7 +10318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -10636,7 +10383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -10701,7 +10448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -10766,7 +10513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -10831,7 +10578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -10896,7 +10643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -10961,7 +10708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -11026,7 +10773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
+    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -11091,7 +10838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -11156,7 +10903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
+    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -11221,7 +10968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -11286,7 +11033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="107">
+    <row r="107" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -11351,7 +11098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -11416,7 +11163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
+    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -11481,7 +11228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -11546,7 +11293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
+    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -11611,7 +11358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -11676,7 +11423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
+    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -11741,7 +11488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
+    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -11806,7 +11553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
+    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -11871,7 +11618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
+    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -11936,7 +11683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -12001,7 +11748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -12066,7 +11813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="119">
+    <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -12131,7 +11878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="120">
+    <row r="120" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -12196,7 +11943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="121">
+    <row r="121" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -12261,7 +12008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -12326,7 +12073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="123">
+    <row r="123" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -12391,7 +12138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -12456,7 +12203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="125">
+    <row r="125" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -12521,7 +12268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -12586,7 +12333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -12651,7 +12398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -12716,7 +12463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -12781,7 +12528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -12846,7 +12593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -12911,7 +12658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
+    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -12976,7 +12723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -13041,7 +12788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
+    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -13106,7 +12853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -13171,7 +12918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
+    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -13236,7 +12983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -13301,7 +13048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -13366,7 +13113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -13431,7 +13178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -13496,7 +13243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="141">
+    <row r="141" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -13561,7 +13308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -13626,7 +13373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="143">
+    <row r="143" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -13691,7 +13438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -13756,7 +13503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -13821,7 +13568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -13886,7 +13633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -13951,7 +13698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
+    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -14016,7 +13763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -14081,7 +13828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -14146,7 +13893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -14211,7 +13958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
+    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -14276,7 +14023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -14341,7 +14088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -14406,7 +14153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
+    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -14471,7 +14218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -14536,7 +14283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -14601,7 +14348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -14666,7 +14413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="159">
+    <row r="159" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -14731,7 +14478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -14796,7 +14543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
+    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -14861,7 +14608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -14926,7 +14673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
+    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -14991,7 +14738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
+    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -15056,7 +14803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
+    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -15121,7 +14868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
+    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -15186,7 +14933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
+    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -15251,7 +14998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
+    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -15316,7 +15063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
+    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -15381,7 +15128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="170">
+    <row r="170" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -15446,7 +15193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -15511,7 +15258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="172">
+    <row r="172" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -15576,7 +15323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="173">
+    <row r="173" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -15641,7 +15388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="174">
+    <row r="174" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -15706,7 +15453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="175">
+    <row r="175" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -15771,7 +15518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="176">
+    <row r="176" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -15836,7 +15583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="177">
+    <row r="177" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -15901,7 +15648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="178">
+    <row r="178" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -15966,7 +15713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -16031,7 +15778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
+    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -16096,7 +15843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
+    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -16161,7 +15908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
+    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -16226,7 +15973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
+    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -16291,7 +16038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -16356,7 +16103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -16421,7 +16168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -16486,7 +16233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -16551,7 +16298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
+    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -16616,7 +16363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
+    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -16681,7 +16428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="190">
+    <row r="190" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -16746,7 +16493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="191">
+    <row r="191" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -16811,7 +16558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -16876,7 +16623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="193">
+    <row r="193" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -16941,7 +16688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="194">
+    <row r="194" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -17006,7 +16753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="195">
+    <row r="195" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -17071,7 +16818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -17136,7 +16883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="197">
+    <row r="197" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -17201,7 +16948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="198">
+    <row r="198" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -17266,7 +17013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="199">
+    <row r="199" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -17331,7 +17078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
+    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -17396,7 +17143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
+    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -17461,7 +17208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
+    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -17526,7 +17273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -17591,7 +17338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
+    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -17656,7 +17403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
+    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -17721,7 +17468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
+    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -17786,7 +17533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
+    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -17851,7 +17598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
+    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -17916,7 +17663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
+    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -17982,9 +17729,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17997,24 +17744,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:U209"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A24" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="1" width="25.6479591836735" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="1" width="9.58673469387755" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="2" width="6.61224489795918" collapsed="true"/>
-    <col min="6" max="21" hidden="false" style="1" width="6.61224489795918" collapsed="true"/>
-    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -18079,7 +17826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -18144,7 +17891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -18209,7 +17956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -18274,7 +18021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -18339,7 +18086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -18404,7 +18151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -18469,7 +18216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -18534,7 +18281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -18599,7 +18346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -18664,7 +18411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -18729,7 +18476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -18794,7 +18541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -18859,7 +18606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -18924,7 +18671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -18989,7 +18736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -19054,7 +18801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -19119,7 +18866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -19184,7 +18931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -19249,7 +18996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -19314,7 +19061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -19379,7 +19126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -19444,7 +19191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -19509,7 +19256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19574,7 +19321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -19639,7 +19386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -19704,7 +19451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -19769,7 +19516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -19834,7 +19581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -19899,7 +19646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -19964,7 +19711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -20029,7 +19776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -20094,7 +19841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -20159,7 +19906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -20224,7 +19971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -20289,7 +20036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -20354,7 +20101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -20419,7 +20166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -20484,7 +20231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -20549,7 +20296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -20614,7 +20361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -20679,7 +20426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -20744,7 +20491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -20809,7 +20556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -20874,7 +20621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -20939,7 +20686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -21004,7 +20751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -21069,7 +20816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -21134,7 +20881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -21199,7 +20946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -21264,7 +21011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -21329,7 +21076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -21394,7 +21141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -21459,7 +21206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -21524,7 +21271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -21589,7 +21336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -21654,7 +21401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -21719,7 +21466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -21784,7 +21531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -21849,7 +21596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -21914,7 +21661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -21979,7 +21726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -22044,7 +21791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -22109,7 +21856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -22174,7 +21921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -22239,7 +21986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -22304,7 +22051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -22369,7 +22116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -22434,7 +22181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -22499,7 +22246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -22564,7 +22311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -22629,7 +22376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -22694,7 +22441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -22759,7 +22506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -22824,7 +22571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -22889,7 +22636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -22954,7 +22701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -23019,7 +22766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -23084,7 +22831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -23149,7 +22896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -23214,7 +22961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -23279,7 +23026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -23344,7 +23091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -23409,7 +23156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -23474,7 +23221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -23539,7 +23286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -23604,7 +23351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -23669,7 +23416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -23734,7 +23481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -23799,7 +23546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -23864,7 +23611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -23929,7 +23676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -23994,7 +23741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -24059,7 +23806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -24124,7 +23871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -24189,7 +23936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -24254,7 +24001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -24319,7 +24066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -24384,7 +24131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -24449,7 +24196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -24514,7 +24261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -24579,7 +24326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -24644,7 +24391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
+    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -24709,7 +24456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -24774,7 +24521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
+    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -24839,7 +24586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -24904,7 +24651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="107">
+    <row r="107" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -24969,7 +24716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -25034,7 +24781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
+    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -25099,7 +24846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -25164,7 +24911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
+    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -25229,7 +24976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -25294,7 +25041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
+    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -25359,7 +25106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
+    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -25424,7 +25171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
+    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -25489,7 +25236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
+    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -25554,7 +25301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -25619,7 +25366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -25684,7 +25431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="119">
+    <row r="119" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -25749,7 +25496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="120">
+    <row r="120" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -25814,7 +25561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="121">
+    <row r="121" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -25879,7 +25626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -25944,7 +25691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="123">
+    <row r="123" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -26009,7 +25756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -26074,7 +25821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="125">
+    <row r="125" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -26139,7 +25886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -26204,7 +25951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -26269,7 +26016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -26334,7 +26081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -26399,7 +26146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -26464,7 +26211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -26529,7 +26276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
+    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -26594,7 +26341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -26659,7 +26406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
+    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -26724,7 +26471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -26789,7 +26536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
+    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -26854,7 +26601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -26919,7 +26666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -26984,7 +26731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -27049,7 +26796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -27114,7 +26861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="141">
+    <row r="141" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -27179,7 +26926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -27244,7 +26991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="143">
+    <row r="143" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -27309,7 +27056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -27374,7 +27121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -27439,7 +27186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -27504,7 +27251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -27569,7 +27316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
+    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -27634,7 +27381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -27699,7 +27446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -27764,7 +27511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -27829,7 +27576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
+    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -27894,7 +27641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -27959,7 +27706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -28024,7 +27771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
+    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -28089,7 +27836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -28154,7 +27901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -28219,7 +27966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -28284,7 +28031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="159">
+    <row r="159" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -28349,7 +28096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -28414,7 +28161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
+    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -28479,7 +28226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -28544,7 +28291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
+    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -28609,7 +28356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
+    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -28674,7 +28421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
+    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -28739,7 +28486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
+    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -28804,7 +28551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
+    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -28869,7 +28616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
+    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -28934,7 +28681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
+    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -28999,7 +28746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="170">
+    <row r="170" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -29064,7 +28811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -29129,7 +28876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="172">
+    <row r="172" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -29194,7 +28941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="173">
+    <row r="173" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -29259,7 +29006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="174">
+    <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -29324,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="175">
+    <row r="175" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -29389,7 +29136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="176">
+    <row r="176" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -29454,7 +29201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="177">
+    <row r="177" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -29519,7 +29266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="178">
+    <row r="178" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -29584,7 +29331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -29649,7 +29396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
+    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -29714,7 +29461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
+    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -29779,7 +29526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
+    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -29844,7 +29591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
+    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -29909,7 +29656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -29974,7 +29721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -30039,7 +29786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -30104,7 +29851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -30169,7 +29916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
+    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -30234,7 +29981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
+    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -30299,7 +30046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="190">
+    <row r="190" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -30364,7 +30111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="191">
+    <row r="191" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -30429,7 +30176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -30494,7 +30241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="193">
+    <row r="193" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -30559,7 +30306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="194">
+    <row r="194" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -30624,7 +30371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="195">
+    <row r="195" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -30689,7 +30436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -30754,7 +30501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="197">
+    <row r="197" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -30819,7 +30566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="198">
+    <row r="198" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -30884,7 +30631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="199">
+    <row r="199" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -30949,7 +30696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
+    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -31014,7 +30761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
+    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -31079,7 +30826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
+    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -31144,7 +30891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -31209,7 +30956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
+    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -31274,7 +31021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
+    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -31339,7 +31086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
+    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -31404,7 +31151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
+    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -31469,7 +31216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
+    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -31534,7 +31281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
+    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -31600,9 +31347,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31615,22 +31362,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="51.2959183673469" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="35.6377551020408" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="28.0765306122449" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
-    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31645,9 +31392,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31660,22 +31407,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="15.9285714285714" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.6581632653061" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="12.9591836734694" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="16.0663265306122" collapsed="true"/>
-    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31689,206 +31436,10 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>742</v>
-      </c>
-      <c r="B3" t="s">
-        <v>743</v>
-      </c>
-      <c r="C3" t="s">
-        <v>744</v>
-      </c>
-      <c r="D3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C4" t="s">
-        <v>748</v>
-      </c>
-      <c r="D4" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>750</v>
-      </c>
-      <c r="B5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C6" t="s">
-        <v>756</v>
-      </c>
-      <c r="D6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>758</v>
-      </c>
-      <c r="B7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C7" t="s">
-        <v>760</v>
-      </c>
-      <c r="D7" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>762</v>
-      </c>
-      <c r="B8" t="s">
-        <v>763</v>
-      </c>
-      <c r="C8" t="s">
-        <v>764</v>
-      </c>
-      <c r="D8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>766</v>
-      </c>
-      <c r="B9" t="s">
-        <v>767</v>
-      </c>
-      <c r="C9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D9" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>770</v>
-      </c>
-      <c r="B10" t="s">
-        <v>771</v>
-      </c>
-      <c r="C10" t="s">
-        <v>772</v>
-      </c>
-      <c r="D10" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>774</v>
-      </c>
-      <c r="B11" t="s">
-        <v>775</v>
-      </c>
-      <c r="C11" t="s">
-        <v>776</v>
-      </c>
-      <c r="D11" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>778</v>
-      </c>
-      <c r="B12" t="s">
-        <v>779</v>
-      </c>
-      <c r="C12" t="s">
-        <v>780</v>
-      </c>
-      <c r="D12" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B13" t="s">
-        <v>783</v>
-      </c>
-      <c r="C13" t="s">
-        <v>784</v>
-      </c>
-      <c r="D13" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>786</v>
-      </c>
-      <c r="B14" t="s">
-        <v>787</v>
-      </c>
-      <c r="C14" t="s">
-        <v>788</v>
-      </c>
-      <c r="D14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>790</v>
-      </c>
-      <c r="B15" t="s">
-        <v>791</v>
-      </c>
-      <c r="C15" t="s">
-        <v>792</v>
-      </c>
-      <c r="D15" t="s">
-        <v>793</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31901,19 +31452,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="2" hidden="false" style="0" width="11.3418367346939" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>653</v>
       </c>
@@ -31921,7 +31472,7 @@
         <v>654</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
@@ -31929,7 +31480,7 @@
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
@@ -31938,9 +31489,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31953,437 +31504,437 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="55.2091836734694" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>660</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>687</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>688</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>709</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>719</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>720</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>721</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>725</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/main/resources/TestData/Leave_Type_Repository.xlsx
+++ b/src/main/resources/TestData/Leave_Type_Repository.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LeaveType1_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Leave_Type2_Repo" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Effective Date" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="TC_01" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Tenure Leaves" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7631" uniqueCount="738">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -4134,13 +4135,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17752,13 +17752,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31370,11 +31369,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31410,16 +31408,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31454,14 +31451,13 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31512,8 +31508,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31940,4 +31936,45 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/TestData/Leave_Type_Repository.xlsx
+++ b/src/main/resources/TestData/Leave_Type_Repository.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
+    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="990" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LeaveType1_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LeaveType2_Scenarios" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Leave_Type1_Repo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Leave_Type2_Repo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Effective Date" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="TC_01" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Tenure Leaves" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="LeaveType1_Scenarios" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="LeaveType2_Scenarios" r:id="rId3" sheetId="2" state="visible"/>
+    <sheet name="Leave_Type1_Repo" r:id="rId4" sheetId="3" state="visible"/>
+    <sheet name="Leave_Type2_Repo" r:id="rId5" sheetId="4" state="visible"/>
+    <sheet name="Effective Date" r:id="rId6" sheetId="5" state="visible"/>
+    <sheet name="TC_01" r:id="rId7" sheetId="6" state="visible"/>
+    <sheet name="Tenure_Leaves" r:id="rId8" sheetId="7" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7631" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7955" uniqueCount="1062">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -3988,6 +3988,1534 @@
 Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
 Accrual: Yes,
 Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure1</t>
+  </si>
+  <si>
+    <t>5abf4d8124029</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:27:42.388</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure2</t>
+  </si>
+  <si>
+    <t>5abf4ddb8de9d</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:29:13.054</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure3</t>
+  </si>
+  <si>
+    <t>5abf4e391ab20</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:30:46.294</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure4</t>
+  </si>
+  <si>
+    <t>5abf4e94e9730</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:32:18.367</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure5</t>
+  </si>
+  <si>
+    <t>5abf4eef0e730</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:33:48.054</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure6</t>
+  </si>
+  <si>
+    <t>5abf4f48f3408</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:35:18.809</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure7</t>
+  </si>
+  <si>
+    <t>5abf4fa54cfc5</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:36:50.698</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure8</t>
+  </si>
+  <si>
+    <t>5abf5001918e2</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:38:23.190</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure9</t>
+  </si>
+  <si>
+    <t>5abf505bb2343</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:39:52.771</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure10</t>
+  </si>
+  <si>
+    <t>5abf50b8ac982</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:41:26.292</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure11</t>
+  </si>
+  <si>
+    <t>5abf511a83ac7</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:43:04.401</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure12</t>
+  </si>
+  <si>
+    <t>5abf5197a1a90</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:45:09.160</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure13</t>
+  </si>
+  <si>
+    <t>5abf520f7ec03</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:47:09.497</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure14</t>
+  </si>
+  <si>
+    <t>5abf528c60296</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:49:20.363</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure15</t>
+  </si>
+  <si>
+    <t>5abf530f7cc76</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:51:25.516</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure16</t>
+  </si>
+  <si>
+    <t>5abf5388b34de</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:53:26.137</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure17</t>
+  </si>
+  <si>
+    <t>5abf540061b05</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:55:26.141</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure18</t>
+  </si>
+  <si>
+    <t>5abf5477aef63</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:57:25.338</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure19</t>
+  </si>
+  <si>
+    <t>5abf54efd76b5</t>
+  </si>
+  <si>
+    <t>2018-03-31T14:59:30.942</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure20</t>
+  </si>
+  <si>
+    <t>5abf556eb2836</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:01:32.485</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure21</t>
+  </si>
+  <si>
+    <t>5abf55e020100</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:03:25.236</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure22</t>
+  </si>
+  <si>
+    <t>5abf564e2876f</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:05:15.436</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure23</t>
+  </si>
+  <si>
+    <t>5abf56bd77968</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:07:06.600</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure24</t>
+  </si>
+  <si>
+    <t>5abf572ce5d07</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:08:58.366</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure25</t>
+  </si>
+  <si>
+    <t>5abf57a0800aa</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:10:53.697</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure26</t>
+  </si>
+  <si>
+    <t>5abf580f01df5</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:12:45.329</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure27</t>
+  </si>
+  <si>
+    <t>5abf587f4be74</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:14:36.915</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure28</t>
+  </si>
+  <si>
+    <t>5abf58ee0f9d1</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:16:27.585</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure29</t>
+  </si>
+  <si>
+    <t>5abf595c98412</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:18:18.220</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure30</t>
+  </si>
+  <si>
+    <t>5abf59cc2292b</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:20:09.363</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure31</t>
+  </si>
+  <si>
+    <t>5abf5a3ba0053</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:22:00.994</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure32</t>
+  </si>
+  <si>
+    <t>5abf5aac663eb</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:23:53.985</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure33</t>
+  </si>
+  <si>
+    <t>5abf5b1db8378</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:25:47.793</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure34</t>
+  </si>
+  <si>
+    <t>5abf5b8ea13bb</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:27:40.284</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure35</t>
+  </si>
+  <si>
+    <t>5abf5bff75466</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:29:33.027</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure36</t>
+  </si>
+  <si>
+    <t>5abf5c712f087</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:31:27.203</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure37</t>
+  </si>
+  <si>
+    <t>5abf5ce1eda21</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:33:19.759</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure38</t>
+  </si>
+  <si>
+    <t>5abf5d51da94e</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:35:11.083</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure39</t>
+  </si>
+  <si>
+    <t>5abf5dc0d631d</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:37:02.657</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure40</t>
+  </si>
+  <si>
+    <t>5abf5e32c3f58</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:38:57.647</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure41</t>
+  </si>
+  <si>
+    <t>5abf5ea417a70</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:40:49.706</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure42</t>
+  </si>
+  <si>
+    <t>5abf5eea818e2</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:42:00.212</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure43</t>
+  </si>
+  <si>
+    <t>5abf5f4647a31</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:43:32.053</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure44</t>
+  </si>
+  <si>
+    <t>5abf5fa10c16c</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:45:02.492</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure45</t>
+  </si>
+  <si>
+    <t>5abf5ffeb82e7</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:46:36.471</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure46</t>
+  </si>
+  <si>
+    <t>5abf606163603</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:48:15.854</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure47</t>
+  </si>
+  <si>
+    <t>5abf60c683d65</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:49:56.249</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure48</t>
+  </si>
+  <si>
+    <t>5abf612200b62</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:51:27.332</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure49</t>
+  </si>
+  <si>
+    <t>5abf617d3968d</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:52:58.852</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure50</t>
+  </si>
+  <si>
+    <t>5abf61d7e2dfa</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:54:29.379</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure51</t>
+  </si>
+  <si>
+    <t>5abf62337ea71</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:56:00.696</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure52</t>
+  </si>
+  <si>
+    <t>5abf629030ee1</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:57:34.540</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure53</t>
+  </si>
+  <si>
+    <t>5abf630414dcd</t>
+  </si>
+  <si>
+    <t>2018-03-31T15:59:29.441</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure54</t>
+  </si>
+  <si>
+    <t>5abf6373895c9</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:01:21.599</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure55</t>
+  </si>
+  <si>
+    <t>5abf63e421294</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:03:13.908</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure56</t>
+  </si>
+  <si>
+    <t>5abf6454d918a</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:05:06.494</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure57</t>
+  </si>
+  <si>
+    <t>5abf64c4ddb81</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:06:58.539</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure58</t>
+  </si>
+  <si>
+    <t>5abf653597754</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:08:51.249</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure59</t>
+  </si>
+  <si>
+    <t>5abf65a87327e</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:10:46.224</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure60</t>
+  </si>
+  <si>
+    <t>5abf661d957e6</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:12:43.995</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure61</t>
+  </si>
+  <si>
+    <t>5abf668e7b860</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:14:36.109</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure62</t>
+  </si>
+  <si>
+    <t>5abf66fd97de6</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:16:27.035</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure64</t>
+  </si>
+  <si>
+    <t>5abf67e622494</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:20:20.405</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure65</t>
+  </si>
+  <si>
+    <t>5abf6856d4db6</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:22:13.971</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure66</t>
+  </si>
+  <si>
+    <t>5abf68cb5d0f0</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:24:09.360</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure67</t>
+  </si>
+  <si>
+    <t>5abf693b8d1e4</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:26:04.301</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure68</t>
+  </si>
+  <si>
+    <t>5abf69b5a1820</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:28:04.635</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure69</t>
+  </si>
+  <si>
+    <t>5abf6a2bc3781</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:30:01.453</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure70</t>
+  </si>
+  <si>
+    <t>5abf6a9d91a9b</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:31:55.239</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure71</t>
+  </si>
+  <si>
+    <t>5abf6b0cb089e</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:33:46.622</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure72</t>
+  </si>
+  <si>
+    <t>5abf6b7de7e67</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:35:40.314</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure73</t>
+  </si>
+  <si>
+    <t>5abf6bfae6e3b</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:37:44.931</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure74</t>
+  </si>
+  <si>
+    <t>5abf6c74e09d0</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:39:47.778</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure75</t>
+  </si>
+  <si>
+    <t>5abf6cf341934</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:41:52.946</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure76</t>
+  </si>
+  <si>
+    <t>5abf6d676ac4a</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:43:49.649</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure77</t>
+  </si>
+  <si>
+    <t>5abf6dd8982b7</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:45:42.306</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure78</t>
+  </si>
+  <si>
+    <t>5abf6e494d5fc</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:47:34.925</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure79</t>
+  </si>
+  <si>
+    <t>5abf6eba32be4</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:49:27.857</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure80</t>
+  </si>
+  <si>
+    <t>5abf6f2a70c2a</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:51:20.639</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure81</t>
+  </si>
+  <si>
+    <t>5abf6f9c08037</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:53:14.131</t>
+  </si>
+  <si>
+    <t>Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: Custom Months-&gt;0.0,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual,
+Credit On TenureBasis: Yes, Credit From Year: 1,2, Credit To Year: 2,3, Credit No. Of Leaves: 18, 24</t>
+  </si>
+  <si>
+    <t>Tenure82</t>
+  </si>
+  <si>
+    <t>5abf700c8e732</t>
+  </si>
+  <si>
+    <t>2018-03-31T16:55:06.548</t>
   </si>
 </sst>
 </file>
@@ -4044,7 +5572,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -4053,71 +5581,71 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -4127,23 +5655,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="1" width="6.0765306122449" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="1" width="24.5663265306122" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="1" width="9.04591836734694" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="2" width="6.0765306122449" collapsed="true"/>
+    <col min="6" max="21" hidden="false" style="1" width="6.0765306122449" collapsed="true"/>
+    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +5737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4273,7 +5802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +5867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +5932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4468,7 +5997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4533,7 +6062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4598,7 +6127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +6192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4728,7 +6257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4793,7 +6322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4858,7 +6387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4923,7 +6452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4988,7 +6517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5053,7 +6582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +6647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5183,7 +6712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5248,7 +6777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5313,7 +6842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5378,7 +6907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5443,7 +6972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -5508,7 +7037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5573,7 +7102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -5638,7 +7167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -5703,7 +7232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -5768,7 +7297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -5833,7 +7362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +7427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +7492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -6028,7 +7557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -6093,7 +7622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -6158,7 +7687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -6223,7 +7752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -6288,7 +7817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -6353,7 +7882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -6418,7 +7947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -6483,7 +8012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -6548,7 +8077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -6613,7 +8142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +8207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -6743,7 +8272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -6808,7 +8337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +8402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -6938,7 +8467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -7003,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -7068,7 +8597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -7133,7 +8662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -7198,7 +8727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -7263,7 +8792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -7328,7 +8857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -7393,7 +8922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -7458,7 +8987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -7523,7 +9052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -7588,7 +9117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7653,7 +9182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -7718,7 +9247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -7783,7 +9312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -7848,7 +9377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -7913,7 +9442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -7978,7 +9507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -8043,7 +9572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -8108,7 +9637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -8173,7 +9702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +9767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -8303,7 +9832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -8368,7 +9897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -8433,7 +9962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -8498,7 +10027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +10092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -8628,7 +10157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -8693,7 +10222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -8758,7 +10287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -8823,7 +10352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -8888,7 +10417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -8953,7 +10482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +10547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -9083,7 +10612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -9148,7 +10677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -9213,7 +10742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -9278,7 +10807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -9343,7 +10872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -9408,7 +10937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -9473,7 +11002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -9538,7 +11067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -9603,7 +11132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -9668,7 +11197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -9733,7 +11262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -9798,7 +11327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -9863,7 +11392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -9928,7 +11457,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -9993,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -10058,7 +11587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -10123,7 +11652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -10188,7 +11717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -10253,7 +11782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -10318,7 +11847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -10383,7 +11912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +11977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -10513,7 +12042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -10578,7 +12107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -10643,7 +12172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -10708,7 +12237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -10773,7 +12302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -10838,7 +12367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -10903,7 +12432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -10968,7 +12497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -11033,7 +12562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -11098,7 +12627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -11163,7 +12692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -11228,7 +12757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -11293,7 +12822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -11358,7 +12887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -11423,7 +12952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -11488,7 +13017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -11553,7 +13082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -11618,7 +13147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -11683,7 +13212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -11748,7 +13277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -11813,7 +13342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -11878,7 +13407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -11943,7 +13472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -12008,7 +13537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -12073,7 +13602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -12138,7 +13667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -12203,7 +13732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -12268,7 +13797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -12333,7 +13862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -12398,7 +13927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -12463,7 +13992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -12528,7 +14057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -12593,7 +14122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -12658,7 +14187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -12723,7 +14252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -12788,7 +14317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -12853,7 +14382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -12918,7 +14447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -12983,7 +14512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -13048,7 +14577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -13113,7 +14642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -13178,7 +14707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -13243,7 +14772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -13308,7 +14837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -13373,7 +14902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -13438,7 +14967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -13503,7 +15032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -13568,7 +15097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -13633,7 +15162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -13698,7 +15227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -13763,7 +15292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -13828,7 +15357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -13893,7 +15422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -13958,7 +15487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -14023,7 +15552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -14088,7 +15617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -14153,7 +15682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -14218,7 +15747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -14283,7 +15812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -14348,7 +15877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -14413,7 +15942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -14478,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -14543,7 +16072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -14608,7 +16137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -14673,7 +16202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -14738,7 +16267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -14803,7 +16332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -14868,7 +16397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -14933,7 +16462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -14998,7 +16527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -15063,7 +16592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -15128,7 +16657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -15193,7 +16722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -15258,7 +16787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -15323,7 +16852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -15388,7 +16917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -15453,7 +16982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -15518,7 +17047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -15583,7 +17112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -15648,7 +17177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -15713,7 +17242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -15778,7 +17307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -15843,7 +17372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -15908,7 +17437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -15973,7 +17502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -16038,7 +17567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -16103,7 +17632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -16168,7 +17697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -16233,7 +17762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -16298,7 +17827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -16363,7 +17892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -16428,7 +17957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -16493,7 +18022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -16558,7 +18087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -16623,7 +18152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -16688,7 +18217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -16753,7 +18282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -16818,7 +18347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -16883,7 +18412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -16948,7 +18477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -17013,7 +18542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -17078,7 +18607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -17143,7 +18672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -17208,7 +18737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -17273,7 +18802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -17338,7 +18867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -17403,7 +18932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -17468,7 +18997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -17533,7 +19062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -17598,7 +19127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -17663,7 +19192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -17729,9 +19258,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17744,23 +19273,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A24" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="1" width="6.0765306122449" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="1" width="24.5663265306122" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="1" width="9.04591836734694" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="2" width="6.0765306122449" collapsed="true"/>
+    <col min="6" max="21" hidden="false" style="1" width="6.0765306122449" collapsed="true"/>
+    <col min="22" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="125.2" outlineLevel="0" r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17825,7 +19355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -17890,7 +19420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -17955,7 +19485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -18020,7 +19550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -18085,7 +19615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -18150,7 +19680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -18215,7 +19745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -18280,7 +19810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -18345,7 +19875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -18410,7 +19940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="11">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -18475,7 +20005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -18540,7 +20070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -18605,7 +20135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -18670,7 +20200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -18735,7 +20265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -18800,7 +20330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -18865,7 +20395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -18930,7 +20460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -18995,7 +20525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -19060,7 +20590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -19125,7 +20655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -19190,7 +20720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -19255,7 +20785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19320,7 +20850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -19385,7 +20915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -19450,7 +20980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -19515,7 +21045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -19580,7 +21110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -19645,7 +21175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -19710,7 +21240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -19775,7 +21305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -19840,7 +21370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -19905,7 +21435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -19970,7 +21500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -20035,7 +21565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -20100,7 +21630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="37">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -20165,7 +21695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="38">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -20230,7 +21760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -20295,7 +21825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -20360,7 +21890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -20425,7 +21955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -20490,7 +22020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -20555,7 +22085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -20620,7 +22150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -20685,7 +22215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -20750,7 +22280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -20815,7 +22345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -20880,7 +22410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -20945,7 +22475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -21010,7 +22540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -21075,7 +22605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -21140,7 +22670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -21205,7 +22735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -21270,7 +22800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -21335,7 +22865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -21400,7 +22930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -21465,7 +22995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -21530,7 +23060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -21595,7 +23125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -21660,7 +23190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -21725,7 +23255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="62">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -21790,7 +23320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="63">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -21855,7 +23385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -21920,7 +23450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -21985,7 +23515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -22050,7 +23580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -22115,7 +23645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -22180,7 +23710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -22245,7 +23775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -22310,7 +23840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -22375,7 +23905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -22440,7 +23970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -22505,7 +24035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -22570,7 +24100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -22635,7 +24165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -22700,7 +24230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -22765,7 +24295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -22830,7 +24360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -22895,7 +24425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -22960,7 +24490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -23025,7 +24555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -23090,7 +24620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -23155,7 +24685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>21</v>
       </c>
@@ -23220,7 +24750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -23285,7 +24815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -23350,7 +24880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -23415,7 +24945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -23480,7 +25010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>21</v>
       </c>
@@ -23545,7 +25075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>21</v>
       </c>
@@ -23610,7 +25140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>21</v>
       </c>
@@ -23675,7 +25205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
         <v>21</v>
       </c>
@@ -23740,7 +25270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -23805,7 +25335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
         <v>21</v>
       </c>
@@ -23870,7 +25400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -23935,7 +25465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -24000,7 +25530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -24065,7 +25595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -24130,7 +25660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -24195,7 +25725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>21</v>
       </c>
@@ -24260,7 +25790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -24325,7 +25855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
         <v>21</v>
       </c>
@@ -24390,7 +25920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>21</v>
       </c>
@@ -24455,7 +25985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>21</v>
       </c>
@@ -24520,7 +26050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -24585,7 +26115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -24650,7 +26180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="107">
       <c r="A107" s="1" t="s">
         <v>21</v>
       </c>
@@ -24715,7 +26245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
         <v>21</v>
       </c>
@@ -24780,7 +26310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -24845,7 +26375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -24910,7 +26440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -24975,7 +26505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
         <v>21</v>
       </c>
@@ -25040,7 +26570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -25105,7 +26635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -25170,7 +26700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -25235,7 +26765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
         <v>21</v>
       </c>
@@ -25300,7 +26830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
         <v>21</v>
       </c>
@@ -25365,7 +26895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
@@ -25430,7 +26960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
         <v>21</v>
       </c>
@@ -25495,7 +27025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -25560,7 +27090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
         <v>21</v>
       </c>
@@ -25625,7 +27155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
         <v>21</v>
       </c>
@@ -25690,7 +27220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -25755,7 +27285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
         <v>21</v>
       </c>
@@ -25820,7 +27350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
         <v>21</v>
       </c>
@@ -25885,7 +27415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
         <v>21</v>
       </c>
@@ -25950,7 +27480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
@@ -26015,7 +27545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
         <v>21</v>
       </c>
@@ -26080,7 +27610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
         <v>21</v>
       </c>
@@ -26145,7 +27675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
         <v>21</v>
       </c>
@@ -26210,7 +27740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
         <v>21</v>
       </c>
@@ -26275,7 +27805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -26340,7 +27870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
         <v>21</v>
       </c>
@@ -26405,7 +27935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -26470,7 +28000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
         <v>21</v>
       </c>
@@ -26535,7 +28065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
         <v>21</v>
       </c>
@@ -26600,7 +28130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
         <v>21</v>
       </c>
@@ -26665,7 +28195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
         <v>21</v>
       </c>
@@ -26730,7 +28260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
         <v>21</v>
       </c>
@@ -26795,7 +28325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
         <v>21</v>
       </c>
@@ -26860,7 +28390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
         <v>21</v>
       </c>
@@ -26925,7 +28455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -26990,7 +28520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
         <v>21</v>
       </c>
@@ -27055,7 +28585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
         <v>21</v>
       </c>
@@ -27120,7 +28650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -27185,7 +28715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
         <v>21</v>
       </c>
@@ -27250,7 +28780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
         <v>21</v>
       </c>
@@ -27315,7 +28845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
         <v>21</v>
       </c>
@@ -27380,7 +28910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
         <v>21</v>
       </c>
@@ -27445,7 +28975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
         <v>21</v>
       </c>
@@ -27510,7 +29040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
         <v>21</v>
       </c>
@@ -27575,7 +29105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
         <v>21</v>
       </c>
@@ -27640,7 +29170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
         <v>21</v>
       </c>
@@ -27705,7 +29235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
         <v>21</v>
       </c>
@@ -27770,7 +29300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
@@ -27835,7 +29365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
         <v>21</v>
       </c>
@@ -27900,7 +29430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -27965,7 +29495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="79.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
         <v>21</v>
       </c>
@@ -28030,7 +29560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -28095,7 +29625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
         <v>21</v>
       </c>
@@ -28160,7 +29690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
         <v>21</v>
       </c>
@@ -28225,7 +29755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
         <v>21</v>
       </c>
@@ -28290,7 +29820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
         <v>21</v>
       </c>
@@ -28355,7 +29885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="113.4" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
         <v>21</v>
       </c>
@@ -28420,7 +29950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
         <v>21</v>
       </c>
@@ -28485,7 +30015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
         <v>21</v>
       </c>
@@ -28550,7 +30080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
@@ -28615,7 +30145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="102.2" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -28680,7 +30210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91" outlineLevel="0" r="169">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -28745,7 +30275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -28810,7 +30340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="171">
       <c r="A171" s="1" t="s">
         <v>21</v>
       </c>
@@ -28875,7 +30405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="172">
       <c r="A172" s="1" t="s">
         <v>21</v>
       </c>
@@ -28940,7 +30470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="173">
       <c r="A173" s="1" t="s">
         <v>21</v>
       </c>
@@ -29005,7 +30535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="174">
       <c r="A174" s="1" t="s">
         <v>21</v>
       </c>
@@ -29070,7 +30600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
         <v>21</v>
       </c>
@@ -29135,7 +30665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="176">
       <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
@@ -29200,7 +30730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="177">
       <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
@@ -29265,7 +30795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="178">
       <c r="A178" s="1" t="s">
         <v>21</v>
       </c>
@@ -29330,7 +30860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="179">
       <c r="A179" s="1" t="s">
         <v>21</v>
       </c>
@@ -29395,7 +30925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="180">
       <c r="A180" s="1" t="s">
         <v>21</v>
       </c>
@@ -29460,7 +30990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="181">
       <c r="A181" s="1" t="s">
         <v>21</v>
       </c>
@@ -29525,7 +31055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="182">
       <c r="A182" s="1" t="s">
         <v>21</v>
       </c>
@@ -29590,7 +31120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="183">
       <c r="A183" s="1" t="s">
         <v>21</v>
       </c>
@@ -29655,7 +31185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="184">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -29720,7 +31250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="185">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -29785,7 +31315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="186">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -29850,7 +31380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="187">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -29915,7 +31445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="188">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -29980,7 +31510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="189">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -30045,7 +31575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="190">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -30110,7 +31640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="191">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -30175,7 +31705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="192">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -30240,7 +31770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -30305,7 +31835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="194">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -30370,7 +31900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="195">
       <c r="A195" s="1" t="s">
         <v>21</v>
       </c>
@@ -30435,7 +31965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="196">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -30500,7 +32030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="197">
       <c r="A197" s="1" t="s">
         <v>21</v>
       </c>
@@ -30565,7 +32095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147" outlineLevel="0" r="198">
       <c r="A198" s="1" t="s">
         <v>21</v>
       </c>
@@ -30630,7 +32160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
         <v>21</v>
       </c>
@@ -30695,7 +32225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="200">
       <c r="A200" s="1" t="s">
         <v>21</v>
       </c>
@@ -30760,7 +32290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="201">
       <c r="A201" s="1" t="s">
         <v>21</v>
       </c>
@@ -30825,7 +32355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
         <v>21</v>
       </c>
@@ -30890,7 +32420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="203">
       <c r="A203" s="1" t="s">
         <v>21</v>
       </c>
@@ -30955,7 +32485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="204">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -31020,7 +32550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="205">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -31085,7 +32615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="206">
       <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
@@ -31150,7 +32680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="207">
       <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
@@ -31215,7 +32745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="208">
       <c r="A208" s="1" t="s">
         <v>21</v>
       </c>
@@ -31280,7 +32810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="124.6" outlineLevel="0" r="209">
       <c r="A209" s="1" t="s">
         <v>21</v>
       </c>
@@ -31346,9 +32876,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31361,21 +32891,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A13" activeCellId="0" pane="topLeft" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col min="1" max="1" hidden="false" style="0" width="48.8673469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="33.8826530612245" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="26.8622448979592" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="16.469387755102" collapsed="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31390,9 +32921,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31405,21 +32936,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D1" activeCellId="0" pane="topLeft" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="15.1173469387755" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="12.4183673469388" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31434,9 +32966,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31449,18 +32981,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H28" activeCellId="0" pane="topLeft" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8010204081633"/>
+    <col min="1" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>653</v>
       </c>
@@ -31468,7 +33001,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>24</v>
       </c>
@@ -31476,7 +33009,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>28</v>
       </c>
@@ -31485,9 +33018,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31500,437 +33033,437 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="52.5102040816327" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="7" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="2">
       <c r="A2" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="3">
       <c r="A3" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="4">
       <c r="A4" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="5">
       <c r="A5" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="6">
       <c r="A6" s="5" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="7">
       <c r="A7" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="8">
       <c r="A8" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="9">
       <c r="A9" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="10">
       <c r="A10" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="11">
       <c r="A11" s="5" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="12">
       <c r="A12" s="5" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="13">
       <c r="A13" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="14">
       <c r="A14" s="5" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="15">
       <c r="A15" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="16">
       <c r="A16" s="5" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="17">
       <c r="A17" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="18">
       <c r="A18" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="19">
       <c r="A19" s="5" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="20">
       <c r="A20" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="21">
       <c r="A21" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="22">
       <c r="A22" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="23">
       <c r="A23" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="25">
       <c r="A25" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="26">
       <c r="A26" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="28">
       <c r="A28" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="29">
       <c r="A29" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="30">
       <c r="A30" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="31">
       <c r="A31" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="32">
       <c r="A32" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="33">
       <c r="A33" s="5" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="34">
       <c r="A34" s="5" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="36">
       <c r="A36" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="37">
       <c r="A37" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="38">
       <c r="A38" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="39">
       <c r="A39" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="40">
       <c r="A40" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="41">
       <c r="A41" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="42">
       <c r="A42" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.7" outlineLevel="0" r="43">
       <c r="A43" s="5" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="44">
       <c r="A44" s="5" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="45">
       <c r="A45" s="5" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="46">
       <c r="A46" s="5" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="47">
       <c r="A47" s="5" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="48">
       <c r="A48" s="5" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="49">
       <c r="A49" s="5" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="50">
       <c r="A50" s="5" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="51">
       <c r="A51" s="5" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="52">
       <c r="A52" s="5" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.95" outlineLevel="0" r="53">
       <c r="A53" s="5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="55">
       <c r="A55" s="5" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="56">
       <c r="A56" s="5" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="57">
       <c r="A57" s="5" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="58">
       <c r="A58" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="59">
       <c r="A59" s="5" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="60">
       <c r="A60" s="5" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="61">
       <c r="A61" s="5" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="62">
       <c r="A62" s="5" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="63">
       <c r="A63" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="64">
       <c r="A64" s="5" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="65">
       <c r="A65" s="5" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="66">
       <c r="A66" s="5" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="67">
       <c r="A67" s="5" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="68">
       <c r="A68" s="5" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="69">
       <c r="A69" s="5" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="70">
       <c r="A70" s="5" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="71">
       <c r="A71" s="5" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="72">
       <c r="A72" s="5" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="73">
       <c r="A73" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="74">
       <c r="A74" s="5" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="75">
       <c r="A75" s="5" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="76">
       <c r="A76" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="77">
       <c r="A77" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="78">
       <c r="A78" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="91.45" outlineLevel="0" r="79">
       <c r="A79" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="80">
       <c r="A80" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="81">
       <c r="A81" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="82">
       <c r="A82" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.2" outlineLevel="0" r="83">
       <c r="A83" s="5" t="s">
         <v>737</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -31943,18 +33476,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B7" activeCellId="0" pane="topLeft" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="6" t="s">
         <v>649</v>
       </c>
@@ -31968,10 +33498,1144 @@
         <v>652</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C10" t="s">
+        <v>772</v>
+      </c>
+      <c r="D10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C11" t="s">
+        <v>776</v>
+      </c>
+      <c r="D11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C12" t="s">
+        <v>780</v>
+      </c>
+      <c r="D12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>783</v>
+      </c>
+      <c r="C13" t="s">
+        <v>784</v>
+      </c>
+      <c r="D13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C14" t="s">
+        <v>788</v>
+      </c>
+      <c r="D14" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C15" t="s">
+        <v>792</v>
+      </c>
+      <c r="D15" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B16" t="s">
+        <v>795</v>
+      </c>
+      <c r="C16" t="s">
+        <v>796</v>
+      </c>
+      <c r="D16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>798</v>
+      </c>
+      <c r="B17" t="s">
+        <v>799</v>
+      </c>
+      <c r="C17" t="s">
+        <v>800</v>
+      </c>
+      <c r="D17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C18" t="s">
+        <v>804</v>
+      </c>
+      <c r="D18" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19" t="s">
+        <v>807</v>
+      </c>
+      <c r="C19" t="s">
+        <v>808</v>
+      </c>
+      <c r="D19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B20" t="s">
+        <v>811</v>
+      </c>
+      <c r="C20" t="s">
+        <v>812</v>
+      </c>
+      <c r="D20" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>814</v>
+      </c>
+      <c r="B21" t="s">
+        <v>815</v>
+      </c>
+      <c r="C21" t="s">
+        <v>816</v>
+      </c>
+      <c r="D21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>818</v>
+      </c>
+      <c r="B22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C22" t="s">
+        <v>820</v>
+      </c>
+      <c r="D22" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>822</v>
+      </c>
+      <c r="B23" t="s">
+        <v>823</v>
+      </c>
+      <c r="C23" t="s">
+        <v>824</v>
+      </c>
+      <c r="D23" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>826</v>
+      </c>
+      <c r="B24" t="s">
+        <v>827</v>
+      </c>
+      <c r="C24" t="s">
+        <v>828</v>
+      </c>
+      <c r="D24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>830</v>
+      </c>
+      <c r="B25" t="s">
+        <v>831</v>
+      </c>
+      <c r="C25" t="s">
+        <v>832</v>
+      </c>
+      <c r="D25" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>834</v>
+      </c>
+      <c r="B26" t="s">
+        <v>835</v>
+      </c>
+      <c r="C26" t="s">
+        <v>836</v>
+      </c>
+      <c r="D26" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>838</v>
+      </c>
+      <c r="B27" t="s">
+        <v>839</v>
+      </c>
+      <c r="C27" t="s">
+        <v>840</v>
+      </c>
+      <c r="D27" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>842</v>
+      </c>
+      <c r="B28" t="s">
+        <v>843</v>
+      </c>
+      <c r="C28" t="s">
+        <v>844</v>
+      </c>
+      <c r="D28" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>846</v>
+      </c>
+      <c r="B29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D29" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>850</v>
+      </c>
+      <c r="B30" t="s">
+        <v>851</v>
+      </c>
+      <c r="C30" t="s">
+        <v>852</v>
+      </c>
+      <c r="D30" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>854</v>
+      </c>
+      <c r="B31" t="s">
+        <v>855</v>
+      </c>
+      <c r="C31" t="s">
+        <v>856</v>
+      </c>
+      <c r="D31" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>858</v>
+      </c>
+      <c r="B32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>860</v>
+      </c>
+      <c r="D32" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>862</v>
+      </c>
+      <c r="B33" t="s">
+        <v>863</v>
+      </c>
+      <c r="C33" t="s">
+        <v>864</v>
+      </c>
+      <c r="D33" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>866</v>
+      </c>
+      <c r="B34" t="s">
+        <v>867</v>
+      </c>
+      <c r="C34" t="s">
+        <v>868</v>
+      </c>
+      <c r="D34" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>870</v>
+      </c>
+      <c r="B35" t="s">
+        <v>871</v>
+      </c>
+      <c r="C35" t="s">
+        <v>872</v>
+      </c>
+      <c r="D35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>874</v>
+      </c>
+      <c r="B36" t="s">
+        <v>875</v>
+      </c>
+      <c r="C36" t="s">
+        <v>876</v>
+      </c>
+      <c r="D36" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>878</v>
+      </c>
+      <c r="B37" t="s">
+        <v>879</v>
+      </c>
+      <c r="C37" t="s">
+        <v>880</v>
+      </c>
+      <c r="D37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>882</v>
+      </c>
+      <c r="B38" t="s">
+        <v>883</v>
+      </c>
+      <c r="C38" t="s">
+        <v>884</v>
+      </c>
+      <c r="D38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>886</v>
+      </c>
+      <c r="B39" t="s">
+        <v>887</v>
+      </c>
+      <c r="C39" t="s">
+        <v>888</v>
+      </c>
+      <c r="D39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>890</v>
+      </c>
+      <c r="B40" t="s">
+        <v>891</v>
+      </c>
+      <c r="C40" t="s">
+        <v>892</v>
+      </c>
+      <c r="D40" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>894</v>
+      </c>
+      <c r="B41" t="s">
+        <v>895</v>
+      </c>
+      <c r="C41" t="s">
+        <v>896</v>
+      </c>
+      <c r="D41" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>898</v>
+      </c>
+      <c r="B42" t="s">
+        <v>899</v>
+      </c>
+      <c r="C42" t="s">
+        <v>900</v>
+      </c>
+      <c r="D42" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>902</v>
+      </c>
+      <c r="B43" t="s">
+        <v>903</v>
+      </c>
+      <c r="C43" t="s">
+        <v>904</v>
+      </c>
+      <c r="D43" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>906</v>
+      </c>
+      <c r="B44" t="s">
+        <v>907</v>
+      </c>
+      <c r="C44" t="s">
+        <v>908</v>
+      </c>
+      <c r="D44" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>910</v>
+      </c>
+      <c r="B45" t="s">
+        <v>911</v>
+      </c>
+      <c r="C45" t="s">
+        <v>912</v>
+      </c>
+      <c r="D45" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>914</v>
+      </c>
+      <c r="B46" t="s">
+        <v>915</v>
+      </c>
+      <c r="C46" t="s">
+        <v>916</v>
+      </c>
+      <c r="D46" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>918</v>
+      </c>
+      <c r="B47" t="s">
+        <v>919</v>
+      </c>
+      <c r="C47" t="s">
+        <v>920</v>
+      </c>
+      <c r="D47" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>922</v>
+      </c>
+      <c r="B48" t="s">
+        <v>923</v>
+      </c>
+      <c r="C48" t="s">
+        <v>924</v>
+      </c>
+      <c r="D48" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>926</v>
+      </c>
+      <c r="B49" t="s">
+        <v>927</v>
+      </c>
+      <c r="C49" t="s">
+        <v>928</v>
+      </c>
+      <c r="D49" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>930</v>
+      </c>
+      <c r="B50" t="s">
+        <v>931</v>
+      </c>
+      <c r="C50" t="s">
+        <v>932</v>
+      </c>
+      <c r="D50" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>934</v>
+      </c>
+      <c r="B51" t="s">
+        <v>935</v>
+      </c>
+      <c r="C51" t="s">
+        <v>936</v>
+      </c>
+      <c r="D51" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>938</v>
+      </c>
+      <c r="B52" t="s">
+        <v>939</v>
+      </c>
+      <c r="C52" t="s">
+        <v>940</v>
+      </c>
+      <c r="D52" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>942</v>
+      </c>
+      <c r="B53" t="s">
+        <v>943</v>
+      </c>
+      <c r="C53" t="s">
+        <v>944</v>
+      </c>
+      <c r="D53" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>946</v>
+      </c>
+      <c r="B54" t="s">
+        <v>947</v>
+      </c>
+      <c r="C54" t="s">
+        <v>948</v>
+      </c>
+      <c r="D54" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>950</v>
+      </c>
+      <c r="B55" t="s">
+        <v>951</v>
+      </c>
+      <c r="C55" t="s">
+        <v>952</v>
+      </c>
+      <c r="D55" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>954</v>
+      </c>
+      <c r="B56" t="s">
+        <v>955</v>
+      </c>
+      <c r="C56" t="s">
+        <v>956</v>
+      </c>
+      <c r="D56" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>958</v>
+      </c>
+      <c r="B57" t="s">
+        <v>959</v>
+      </c>
+      <c r="C57" t="s">
+        <v>960</v>
+      </c>
+      <c r="D57" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>962</v>
+      </c>
+      <c r="B58" t="s">
+        <v>963</v>
+      </c>
+      <c r="C58" t="s">
+        <v>964</v>
+      </c>
+      <c r="D58" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>966</v>
+      </c>
+      <c r="B59" t="s">
+        <v>967</v>
+      </c>
+      <c r="C59" t="s">
+        <v>968</v>
+      </c>
+      <c r="D59" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>970</v>
+      </c>
+      <c r="B60" t="s">
+        <v>971</v>
+      </c>
+      <c r="C60" t="s">
+        <v>972</v>
+      </c>
+      <c r="D60" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>974</v>
+      </c>
+      <c r="B61" t="s">
+        <v>975</v>
+      </c>
+      <c r="C61" t="s">
+        <v>976</v>
+      </c>
+      <c r="D61" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>978</v>
+      </c>
+      <c r="B62" t="s">
+        <v>979</v>
+      </c>
+      <c r="C62" t="s">
+        <v>980</v>
+      </c>
+      <c r="D62" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>982</v>
+      </c>
+      <c r="B63" t="s">
+        <v>983</v>
+      </c>
+      <c r="C63" t="s">
+        <v>984</v>
+      </c>
+      <c r="D63" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>986</v>
+      </c>
+      <c r="B64" t="s">
+        <v>987</v>
+      </c>
+      <c r="C64" t="s">
+        <v>988</v>
+      </c>
+      <c r="D64" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>990</v>
+      </c>
+      <c r="B65" t="s">
+        <v>991</v>
+      </c>
+      <c r="C65" t="s">
+        <v>992</v>
+      </c>
+      <c r="D65" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>994</v>
+      </c>
+      <c r="B66" t="s">
+        <v>995</v>
+      </c>
+      <c r="C66" t="s">
+        <v>996</v>
+      </c>
+      <c r="D66" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>998</v>
+      </c>
+      <c r="B67" t="s">
+        <v>999</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1061</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
